--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.526</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.633</v>
+        <v>17.448</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.93</v>
+        <v>-0.955</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.916</v>
+        <v>24.503</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.98</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.061</v>
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-23.99806230796825</v>
+        <v>14.32836845663508</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-25.55512279588952</v>
+        <v>13.57276073324826</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-8.522124021343913</v>
+        <v>16.8893399254336</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.727629135191691</v>
+        <v>-0.689746106378724</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1.136115050477727</v>
+        <v>13.92950941289308</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.00727352927974</v>
+        <v>20.01114812005586</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-14.72934484446712</v>
+        <v>2.522640305117289</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-4.711296698866803</v>
+        <v>26.41267476654366</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.94829694346332</v>
+        <v>27.52869968549254</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-31.44958215226232</v>
+        <v>24.21029424310764</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-28.69556355271907</v>
+        <v>29.20776276018094</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-13.32862466578375</v>
+        <v>29.62554170107217</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-19.82375488453825</v>
+        <v>13.06821595026596</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-25.82294322374686</v>
+        <v>23.62990894274749</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-3.73572993321126</v>
+        <v>26.08806444060936</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-32.38893195055938</v>
+        <v>18.49520016825457</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-11.42978271050772</v>
+        <v>34.05782915607716</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.33632744164215</v>
+        <v>44.01179695711407</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-4.676206128844527</v>
+        <v>6.239207236034176</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-7.904179784175213</v>
+        <v>29.21626778589844</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39.70373577712233</v>
+        <v>46.23503273645023</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-14.98171472794546</v>
+        <v>6.821192491012916</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-11.62331312760246</v>
+        <v>48.53860735255901</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60.12759256015111</v>
+        <v>69.67050144833831</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-88.1485603401275</v>
+        <v>49.32034872741674</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-81.77224516963916</v>
+        <v>61.37142312822563</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-26.4627774968943</v>
+        <v>72.47095242738546</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-38.16347263457142</v>
+        <v>16.91763481031935</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.019808802320327</v>
+        <v>67.27955536239413</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43.9017744477183</v>
+        <v>76.40160329692999</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-25.37987926888151</v>
+        <v>25.04199646077892</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>20.59111058286838</v>
+        <v>44.87064790958596</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>59.65983529758715</v>
+        <v>52.34507768305093</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.352255218366039</v>
+        <v>9.331863683850656</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>19.59521843555477</v>
+        <v>39.447684801485</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>68.68343023904684</v>
+        <v>54.6370410178213</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-19.07457765228652</v>
+        <v>12.65675070351047</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.4331336475377</v>
+        <v>69.18758403560702</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>88.75257974190684</v>
+        <v>80.1983421905701</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6.616120639158098</v>
+        <v>76.33879283935154</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.54340000645753</v>
+        <v>88.34882194263417</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>85.2183869724373</v>
+        <v>94.63007325437462</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-33.75410084768249</v>
+        <v>32.51613213705468</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>46.84764367746116</v>
+        <v>90.84862486305148</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>80.24425705288535</v>
+        <v>92.35090147154722</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-16.14928199136055</v>
+        <v>7.794235732435972</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.224375985004713</v>
+        <v>39.04721058041675</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>46.24643689015576</v>
+        <v>41.30133918174712</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>17.15713164535454</v>
+        <v>2.686498310800896</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>52.33205571982663</v>
+        <v>42.79346931252825</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>90.36917747912319</v>
+        <v>46.9150388937061</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.0265547909495325</v>
+        <v>2.30585755008509</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>56.75837758904386</v>
+        <v>63.21937730456307</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>94.50493864362859</v>
+        <v>63.06368929860402</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.86442614163302</v>
+        <v>57.66776993140668</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.26886763627896</v>
+        <v>66.4329805657986</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.60180885823125</v>
+        <v>62.46883572807305</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3.168089417611142</v>
+        <v>9.366807402329488</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.72220987048358</v>
+        <v>57.95462113707787</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>79.28610145777945</v>
+        <v>64.79206722574949</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-24.80803354299427</v>
+        <v>10.99775710835762</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.6527449237686227</v>
+        <v>38.13643467521092</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.6649645080275</v>
+        <v>44.36818288149244</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.857371429849465</v>
+        <v>3.320198021801101</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-3.340854105838574</v>
+        <v>32.40908789787763</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>47.47381996927645</v>
+        <v>45.53504349556222</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-9.217536330261694</v>
+        <v>5.373332564224356</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-0.2203068534229971</v>
+        <v>56.06052884652988</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>68.9067691447547</v>
+        <v>72.7620141484619</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-72.43337822046338</v>
+        <v>52.86865266172985</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-55.41513303448203</v>
+        <v>66.24656539671143</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-12.27350642905186</v>
+        <v>70.75887572318358</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-28.01116214528601</v>
+        <v>7.605916715070052</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22.65286575437328</v>
+        <v>67.2796703119056</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>60.98579190334083</v>
+        <v>74.93310470201088</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-25.62786315409814</v>
+        <v>9.437884651222344</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.30156500070454</v>
+        <v>43.71348276058303</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>66.79089159282778</v>
+        <v>47.95186722464256</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>10.69171158924688</v>
+        <v>0.5256955926757243</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.44428779796162</v>
+        <v>42.56101516671683</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>85.82356566008598</v>
+        <v>51.35227981686155</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-9.430833866051685</v>
+        <v>3.629536080484851</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>47.91035090998234</v>
+        <v>71.6441840349618</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>102.4729261489593</v>
+        <v>79.13456068719469</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>21.42076436785167</v>
+        <v>76.90198803248198</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>56.50579911491808</v>
+        <v>92.83397044621418</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>97.03278824093694</v>
+        <v>92.86969691341021</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-34.95251561119029</v>
+        <v>6.380596582233519</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>56.99050462783565</v>
+        <v>84.85336875842412</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>103.9748986014922</v>
+        <v>88.0528002744972</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-15.46275690939358</v>
+        <v>28.88622904633275</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>9.027767926375233</v>
+        <v>43.96506952770851</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.64535435361078</v>
+        <v>46.03195448758627</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>11.1522741240595</v>
+        <v>7.482102247285795</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>57.90987831870136</v>
+        <v>45.69213203099267</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>84.44457249842246</v>
+        <v>48.44343303255887</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-3.749107339051861</v>
+        <v>8.763734379241249</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>63.0027839766144</v>
+        <v>68.2036148600649</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>90.08725295316832</v>
+        <v>61.8139375897866</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>37.32184405287596</v>
+        <v>56.81828078389199</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>56.89391516075214</v>
+        <v>69.67252563227717</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>69.03362490084639</v>
+        <v>67.71728464798031</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.103398213165278</v>
+        <v>25.51295837376705</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>44.99791524978058</v>
+        <v>58.99251786425052</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>69.30867229490694</v>
+        <v>61.9922192830462</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-17.79225803971481</v>
+        <v>25.83656897950976</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>13.43358732333708</v>
+        <v>45.40653036437995</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.82377253236838</v>
+        <v>48.12954157607166</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-2.254333297046188</v>
+        <v>6.864271322209973</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.42130527636992</v>
+        <v>41.61724358977858</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>43.79808792041364</v>
+        <v>47.69287040813137</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-14.01850266542091</v>
+        <v>7.967931503106588</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.53595683213318</v>
+        <v>66.64153428009244</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>62.07598481329926</v>
+        <v>73.32756271329977</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-60.23465607721728</v>
+        <v>60.59908078676649</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>-47.93474114585213</v>
+        <v>71.22326059383398</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>-16.36383726604932</v>
+        <v>71.31944073403685</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-25.04373573152272</v>
+        <v>26.47486256754896</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.05420377008106</v>
+        <v>71.09063890156024</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48.10136966382917</v>
+        <v>72.62323428830362</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-10.58470981434716</v>
+        <v>30.89973984063911</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>45.43754546755012</v>
+        <v>51.57513877600643</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>61.45474753331602</v>
+        <v>53.52514129783998</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.82451528402588</v>
+        <v>6.619794607864158</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>58.60200516823265</v>
+        <v>51.04376219363459</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>83.16793135124139</v>
+        <v>53.92424997791735</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-8.886396787877302</v>
+        <v>7.526858581991309</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>68.21823060976787</v>
+        <v>78.49869157561228</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>95.90206643088361</v>
+        <v>79.51234526512644</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.59643349870872</v>
+        <v>83.49848268733182</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>53.46598934514684</v>
+        <v>90.88825251377659</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>95.78682313933045</v>
+        <v>94.91342672737879</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-22.4256508712307</v>
+        <v>32.15067577063159</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>68.81670928087327</v>
+        <v>88.99887240321462</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>99.54561231944216</v>
+        <v>90.47658712319908</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-8.440533731326823</v>
+        <v>14.88929269809629</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-9.556184269382939</v>
+        <v>18.66456099332385</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>3.7738314600103</v>
+        <v>19.96026148363433</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.161146072525739</v>
+        <v>0.7753024674846323</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.21114350063384</v>
+        <v>20.86117059661276</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>32.65392220327378</v>
+        <v>22.64203029159211</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-5.592166397127912</v>
+        <v>4.594545672219493</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2.48648378771621</v>
+        <v>30.60343120652676</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.54244333568478</v>
+        <v>29.27184604124635</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-17.40684717615495</v>
+        <v>27.97144287259404</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-23.31684889269975</v>
+        <v>30.80446909293108</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-6.225825699073354</v>
+        <v>34.51281880635744</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>48.338284597168</v>
+        <v>66.93230047744611</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>35.45133738394303</v>
+        <v>68.65424342433586</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>56.80992687042054</v>
+        <v>65.25005113785575</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-39.29724745964832</v>
+        <v>12.66631491046282</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-14.19781714009275</v>
+        <v>34.971954829962</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>11.05368774613038</v>
+        <v>43.04979430811994</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-12.31834233338064</v>
+        <v>3.679071173072746</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-10.75125095007489</v>
+        <v>34.12954428407282</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>35.31932175004043</v>
+        <v>49.28594610230563</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-27.58921805865519</v>
+        <v>11.22790531345196</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-22.72409308453992</v>
+        <v>52.63063749923145</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.0154173261722</v>
+        <v>71.45520911611764</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-104.422070842206</v>
+        <v>46.37419207739977</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-89.56764837047184</v>
+        <v>55.33159039953944</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-49.15847250727317</v>
+        <v>71.00607335544255</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-44.85936345297831</v>
+        <v>17.21549696834502</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-2.425918927468743</v>
+        <v>66.115985922824</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.18184264859444</v>
+        <v>73.34629927879396</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-26.37435297888415</v>
+        <v>26.14334740930002</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>10.81415452070748</v>
+        <v>45.11858605446248</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>39.98961879082866</v>
+        <v>53.4606458034938</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-5.982963324703988</v>
+        <v>7.747027365578628</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>8.362269930179522</v>
+        <v>40.11471757070623</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>55.38150101175414</v>
+        <v>50.60157837338963</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-31.38424519109607</v>
+        <v>14.65888198723887</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1.535602426726584</v>
+        <v>64.56908379095778</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>56.42444840930118</v>
+        <v>77.8988097111752</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-29.32728838270579</v>
+        <v>66.94842512701004</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-5.719793478887951</v>
+        <v>75.12198729290844</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>51.38631116636121</v>
+        <v>92.85192735494581</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-35.02044326065267</v>
+        <v>35.46044494498791</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>17.66793350786195</v>
+        <v>83.73361980262531</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>57.52610412459192</v>
+        <v>90.27425272674478</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.9051365920579</v>
+        <v>23.42824054135759</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>39.50408802528587</v>
+        <v>43.2321416387284</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>51.98716395093652</v>
+        <v>41.24966963895326</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>17.4747723152466</v>
+        <v>7.238830542913771</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>71.43752519426009</v>
+        <v>46.5975384399956</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>84.93014627445011</v>
+        <v>50.5343746712295</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.171389808093537</v>
+        <v>10.48038330452638</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>87.76759662228459</v>
+        <v>73.93539236563225</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>102.4930136487996</v>
+        <v>66.66837987557683</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>43.73686196155482</v>
+        <v>60.42509471542898</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>61.73442506341753</v>
+        <v>72.8152831089817</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>71.77122501905656</v>
+        <v>75.34080455917152</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3.175312288486495</v>
+        <v>21.50139639859715</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-6.970007670552278</v>
+        <v>11.04281954708944</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>9.239916867147585</v>
+        <v>9.105409783128891</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>4.784198652282029</v>
+        <v>30.97417359502398</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>39.68146745663934</v>
+        <v>54.01806678632593</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>53.56585793543168</v>
+        <v>53.3833945448647</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.530063178283328</v>
+        <v>7.86004469611278</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>45.01844217124982</v>
+        <v>46.68911797209647</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>63.47083678589318</v>
+        <v>54.87303735382101</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-3.885764831724785</v>
+        <v>11.02429949730573</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>50.8858819143408</v>
+        <v>74.46211454154384</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>78.56847356926765</v>
+        <v>77.89333172344087</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-34.99227370144992</v>
+        <v>73.04849501987486</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-32.7356198253734</v>
+        <v>78.28585744569888</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2.916148256266879</v>
+        <v>81.81711373296169</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3.850908042004264</v>
+        <v>42.07804193361154</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>56.60526103065526</v>
+        <v>79.04436669057249</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>69.94785742479171</v>
+        <v>79.41587201559601</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>12.18004698872947</v>
+        <v>35.41459275906004</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>65.23961670368611</v>
+        <v>55.53836531548158</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>86.6602546480393</v>
+        <v>55.61363828254849</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>15.15631124822947</v>
+        <v>8.412572541627952</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>61.36467935521988</v>
+        <v>47.89377485623714</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>85.29807027730702</v>
+        <v>52.53586890097485</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-5.335830904462469</v>
+        <v>11.63409842739471</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>73.72086559604848</v>
+        <v>78.86470278700955</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>107.4474114043069</v>
+        <v>81.10657463164792</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>42.93683270654343</v>
+        <v>86.2785031531855</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>57.57412869287405</v>
+        <v>90.16089851786856</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>101.3862282280087</v>
+        <v>94.14711321498822</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>4.678221198449123</v>
+        <v>52.30162042271219</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>76.69878649061262</v>
+        <v>91.4488213788283</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>100.9940566297844</v>
+        <v>87.60970849369932</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-19.41070283624656</v>
+        <v>18.12028533347733</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.79042767589631</v>
+        <v>33.20618746236332</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>44.17891181016974</v>
+        <v>38.2236721088705</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>14.06046836096344</v>
+        <v>5.330089469108305</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>79.41819583789497</v>
+        <v>44.77395324193793</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>98.11214734669311</v>
+        <v>47.51465589025079</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>2.960933926603744</v>
+        <v>6.60266248502473</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>85.70050479164991</v>
+        <v>71.98109377734316</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>111.9709182819946</v>
+        <v>67.56002048695665</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>55.33965956380518</v>
+        <v>63.29613758655115</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>80.26506435112574</v>
+        <v>71.57426202867896</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>92.01999127941714</v>
+        <v>73.31425386962192</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-7.411785008156826</v>
+        <v>13.69757040682378</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>2.586388353681613</v>
+        <v>7.228534304040519</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.75140953599508</v>
+        <v>6.99741440161797</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-19.55002500456057</v>
+        <v>23.45503639885404</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>24.16525961036878</v>
+        <v>49.4205805920278</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>50.65823395639391</v>
+        <v>51.80893977381045</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-4.264982057863975</v>
+        <v>5.822191659295694</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>34.28960559233515</v>
+        <v>45.6157287846674</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>58.95046951776858</v>
+        <v>52.3571417947029</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-11.52921206248728</v>
+        <v>6.931844268510112</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>43.86202564198065</v>
+        <v>73.73421492457423</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>83.83480674303171</v>
+        <v>77.33786739726385</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-38.51985622413783</v>
+        <v>58.01538389823433</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-22.85781997043985</v>
+        <v>72.9553895837046</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>13.66558707880974</v>
+        <v>77.39245110954138</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-26.27596587624778</v>
+        <v>24.73596036138321</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>54.01304690635492</v>
+        <v>79.56482171583013</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>74.23379715339694</v>
+        <v>84.37712019036226</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-16.60520271147983</v>
+        <v>23.97186259011762</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>45.51275154516334</v>
+        <v>50.16142917282333</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>73.07441237839971</v>
+        <v>52.34387993254269</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>7.028642340159806</v>
+        <v>4.397744610237304</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>60.79610400085117</v>
+        <v>48.51723076708343</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>85.91070017329513</v>
+        <v>50.72364442258822</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-12.32736151470262</v>
+        <v>6.194646599916368</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>73.39451173439538</v>
+        <v>79.00226320132406</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>106.3515634109024</v>
+        <v>78.73795104866311</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>43.7327979048532</v>
+        <v>78.23758548909973</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>64.48059239304085</v>
+        <v>91.4648214953578</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>99.90500683822823</v>
+        <v>93.0404285011773</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-36.7144193770413</v>
+        <v>24.58081471268853</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>68.58263351778179</v>
+        <v>86.3763738420221</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>101.6207457233107</v>
+        <v>85.88032463453906</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-23.19748161908525</v>
+        <v>9.100122893506693</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-24.82021719735796</v>
+        <v>7.830298409324261</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-9.513616648715626</v>
+        <v>11.28695231154181</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-7.706692906479432</v>
+        <v>-1.319489417184169</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-4.356367121829763</v>
+        <v>12.55868962135283</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>10.43984612509779</v>
+        <v>16.00712460496761</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-22.00740664996327</v>
+        <v>-0.3702089907723192</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-15.25572121059639</v>
+        <v>21.27921251195035</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>9.727298885846039</v>
+        <v>21.3962404159858</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-32.86214334890512</v>
+        <v>24.37680460716992</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-26.32528294140261</v>
+        <v>30.53365149543896</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-15.34191513231812</v>
+        <v>33.11594231624762</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-22.83585315931533</v>
+        <v>11.55626387636704</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-32.71854877592024</v>
+        <v>18.24859625879594</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-17.97960702470176</v>
+        <v>18.63300698612139</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-19.90637245169241</v>
+        <v>12.52784967116767</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-1.828015800491855</v>
+        <v>26.46273102226425</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.77031646051164</v>
+        <v>33.33058847797881</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-4.877002263292141</v>
+        <v>4.984492321865797</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-3.017716899336179</v>
+        <v>26.86484092568687</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.89007099949477</v>
+        <v>38.35130088108114</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-14.88197369429561</v>
+        <v>6.189416596622983</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-9.300439782792822</v>
+        <v>42.53171220858196</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>43.45269255315399</v>
+        <v>55.94060340991258</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-75.18870773585492</v>
+        <v>39.61603164340737</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-76.60129917417142</v>
+        <v>50.3813058359888</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-42.35584141178124</v>
+        <v>54.28763937174533</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-29.72281386420111</v>
+        <v>13.85442523467056</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-10.55505707474505</v>
+        <v>52.34608149457923</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.54948653628053</v>
+        <v>55.59501246289587</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-10.41901328709913</v>
+        <v>16.44347169293767</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.85502787914244</v>
+        <v>36.90932187345707</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>63.32340497843389</v>
+        <v>43.16274799615999</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>11.19051188487235</v>
+        <v>7.443733657092501</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>45.63732309766338</v>
+        <v>40.6316482962679</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>68.04451767562533</v>
+        <v>49.08413409606671</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-8.789465930561292</v>
+        <v>9.793998836210278</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>53.42038692844635</v>
+        <v>64.97926093745518</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>88.12674329972224</v>
+        <v>70.38005315647</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>23.10196791840643</v>
+        <v>70.57138425229866</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>44.36067310714235</v>
+        <v>79.83020143657635</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.85560463107343</v>
+        <v>82.22084982962451</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-19.36666598535125</v>
+        <v>27.67785565904925</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>52.92307043273159</v>
+        <v>80.07121863199879</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>87.09722866059688</v>
+        <v>86.43963618343638</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-35.7292700982053</v>
+        <v>8.586371601388848</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-38.20951130304687</v>
+        <v>10.55428154273549</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-23.56980769716719</v>
+        <v>9.969582281496198</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-13.29689765114706</v>
+        <v>-1.710383850498847</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-19.13601406433315</v>
+        <v>10.97597458538968</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>5.419103238773232</v>
+        <v>13.49796986578675</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-29.79959942074457</v>
+        <v>-0.7437992497669406</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-30.32142910422685</v>
+        <v>16.02297073744509</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-7.375088897778184</v>
+        <v>12.81992664270109</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-41.77343716159312</v>
+        <v>12.9096538677885</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-47.81122612734983</v>
+        <v>15.23519906512312</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-37.29155028570004</v>
+        <v>14.0250346447039</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-32.65770862977321</v>
+        <v>10.77234975759882</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-41.64610172220232</v>
+        <v>12.96210121839214</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-19.33809966470135</v>
+        <v>14.40667993804657</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-23.42546877955284</v>
+        <v>3.27987454763856</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-16.6361131897846</v>
+        <v>8.233949000807097</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>4.985733711201732</v>
+        <v>13.54123382033369</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-0.93521298593474</v>
+        <v>-3.151535811481526</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-18.60936384193322</v>
+        <v>4.390059465842342</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>9.928446709996322</v>
+        <v>14.16503590410714</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-13.13722122128486</v>
+        <v>-2.316821929156877</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-35.19850345679897</v>
+        <v>12.0558459933541</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>12.56232208392281</v>
+        <v>27.63210161860548</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-107.214363009677</v>
+        <v>7.06906684667134</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-101.3546381813179</v>
+        <v>20.79178707438513</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-54.07819429317321</v>
+        <v>35.12115530988576</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-37.80642411764821</v>
+        <v>0.03295099468414264</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-30.51482554262644</v>
+        <v>18.44648031268754</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-14.84317981145681</v>
+        <v>16.63794623415807</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-23.32225105319647</v>
+        <v>4.799161044253307</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>1.098955350596427</v>
+        <v>13.21468413654682</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>54.34220004237123</v>
+        <v>32.04843767973262</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>4.90602238254904</v>
+        <v>-0.2193915775321251</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-6.284106752553797</v>
+        <v>13.31150928761784</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>55.55451232790237</v>
+        <v>33.06702223212201</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-19.9953970640271</v>
+        <v>-0.6365848684647979</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-15.42586386546181</v>
+        <v>23.21196276057426</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>73.57095761260176</v>
+        <v>61.07092381647222</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-36.31321987401829</v>
+        <v>20.52195829786513</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-3.698029933034334</v>
+        <v>49.41252878862406</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.22373062941419</v>
+        <v>72.7419729499012</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-44.58154375799917</v>
+        <v>3.335558273694875</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-16.37074657997302</v>
+        <v>30.42397052051583</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>45.67794999607894</v>
+        <v>41.94773328681435</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-52.16717743578681</v>
+        <v>15.46388151741865</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-43.14264151589067</v>
+        <v>21.35114923142108</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-3.580677054002379</v>
+        <v>38.56514829993504</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-11.62075178029765</v>
+        <v>5.977627960618271</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>31.74185814906636</v>
+        <v>45.73337593678939</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>50.64964287976109</v>
+        <v>50.94372412884299</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-28.38522856488375</v>
+        <v>8.439851632211809</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.92813574482922</v>
+        <v>65.74677496657053</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>54.85647874309639</v>
+        <v>67.8925028706102</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.38962314391334</v>
+        <v>63.89607532831474</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>37.10019489516033</v>
+        <v>74.36992703647913</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>48.250725684138</v>
+        <v>72.81006561132044</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-27.26526600573131</v>
+        <v>31.91683943655302</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>11.38533737650958</v>
+        <v>56.28995246844956</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>52.2355803176756</v>
+        <v>74.71561546152596</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-37.42907304929408</v>
+        <v>17.86048517195984</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-10.22677553497095</v>
+        <v>32.35910540629371</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>12.15913344692871</v>
+        <v>38.1636088156485</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-17.31194634894847</v>
+        <v>1.704762063566914</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-2.660521858183429</v>
+        <v>34.61065157445366</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>17.54628892870731</v>
+        <v>38.37868500400046</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-29.57292115384864</v>
+        <v>2.850532082971529</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-3.492555486409017</v>
+        <v>54.11954232710264</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.85063726908224</v>
+        <v>61.11424783315043</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-88.75303666509815</v>
+        <v>47.27149567576232</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-78.5866577038732</v>
+        <v>55.97871803554078</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-49.33033167490792</v>
+        <v>57.35109698167146</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-46.22338548139037</v>
+        <v>25.96580511264307</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-1.541290223969966</v>
+        <v>62.46406642216411</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>21.96879504487502</v>
+        <v>63.67249364598436</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-28.41049446899468</v>
+        <v>20.77822141078758</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>20.59977788539639</v>
+        <v>37.95165783795867</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>49.46909963638744</v>
+        <v>45.91336276554038</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1.445741128084293</v>
+        <v>5.331551129821275</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.25732841444413</v>
+        <v>45.49354415595966</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>64.3781327789719</v>
+        <v>48.82638813659406</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-17.79296727482667</v>
+        <v>7.172341533681486</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>53.08076211129712</v>
+        <v>70.1805399964892</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>80.1897953030463</v>
+        <v>74.31990054549338</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.85434025304299</v>
+        <v>74.26577901685812</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>47.94548359259311</v>
+        <v>80.72774322383444</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>80.81313561776646</v>
+        <v>84.18530381569909</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-32.1000810266744</v>
+        <v>31.61741971106746</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>56.00525961011378</v>
+        <v>79.17604622764603</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>91.10050077794254</v>
+        <v>87.50245624163168</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-23.02840105617823</v>
+        <v>8.636914662245381</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-34.91061255558584</v>
+        <v>10.57259318543689</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-16.35872788014406</v>
+        <v>14.27807295377428</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-7.568476294929454</v>
+        <v>-1.28137615904696</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-20.27459341861081</v>
+        <v>7.710929831267084</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1.272198225843653</v>
+        <v>15.36417938811168</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-24.01604674642893</v>
+        <v>-1.167362274523551</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-30.88873257720935</v>
+        <v>16.51263743307497</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-1.10396341245756</v>
+        <v>19.032440777074</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-46.50111739322325</v>
+        <v>15.43668247955147</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-44.64838771256701</v>
+        <v>22.04595480422904</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-32.84463589234069</v>
+        <v>23.6618808203773</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-24.7375390043983</v>
+        <v>8.080654706382365</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-37.78441075466553</v>
+        <v>15.20288618370887</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-19.66583582467233</v>
+        <v>19.5708173920016</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-45.2320366484051</v>
+        <v>6.213534935031294</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-54.76961562196348</v>
+        <v>19.82135455299398</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-21.86675121770654</v>
+        <v>29.60553842608023</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-23.53796704183075</v>
+        <v>2.749655470875435</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-54.49044494959141</v>
+        <v>18.01863501564238</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-19.25881886698717</v>
+        <v>34.05261285886881</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-37.83137691036059</v>
+        <v>3.006788837781354</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-73.93691522289329</v>
+        <v>30.4405535850425</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-14.53185801996163</v>
+        <v>49.45645880286393</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-121.7659541112586</v>
+        <v>21.84430261992724</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-131.7256722800601</v>
+        <v>33.6857956738411</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-85.27217081947488</v>
+        <v>39.17006370077402</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-57.89735046218307</v>
+        <v>4.901026729754957</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-67.62765585557138</v>
+        <v>33.58273590100444</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-35.60510371825266</v>
+        <v>44.10626664773622</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-36.62919669981706</v>
+        <v>14.35652478064806</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-18.41407014969319</v>
+        <v>29.19900099791559</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.41016876159908</v>
+        <v>42.6263373720288</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-17.0001814205316</v>
+        <v>5.617950566334681</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-22.45812385147612</v>
+        <v>28.34364202581558</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.84039098802906</v>
+        <v>44.02591631312787</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-39.73272008134292</v>
+        <v>9.649555585917984</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-30.96416768780934</v>
+        <v>44.20285297196196</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>37.29810433297062</v>
+        <v>63.27075486956969</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-55.5986312774569</v>
+        <v>45.03150047725116</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-45.81857803387619</v>
+        <v>59.36658178462179</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.46953178505395</v>
+        <v>78.34993864554221</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-64.40399138784655</v>
+        <v>24.03092886294452</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-38.09607204337642</v>
+        <v>57.03683380532615</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>15.99130681460007</v>
+        <v>70.31317502114322</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-12.63864745625987</v>
+        <v>3.164924382329335</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-8.775336130642501</v>
+        <v>2.797887387311075</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>22.43569188622374</v>
+        <v>7.66957301476285</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.856230937853852</v>
+        <v>-3.28127048017333</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.17012240998318</v>
+        <v>5.507124797449251</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>41.89465807015459</v>
+        <v>11.46907506863041</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-6.437176541590659</v>
+        <v>-4.385145172676364</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-5.456803096441163</v>
+        <v>7.093792509667697</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.46468274194622</v>
+        <v>12.31625191103927</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-9.52280259152316</v>
+        <v>1.874282393615147</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-4.984558190869748</v>
+        <v>4.716215558164972</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.74015808972952</v>
+        <v>17.09020548808154</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-3.215605417545888</v>
+        <v>1.371614550515826</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-2.944170954525802</v>
+        <v>2.835090954933627</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.30997726414763</v>
+        <v>10.87038125389252</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-13.0872941602489</v>
+        <v>17.3807447418853</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>15.19214698844499</v>
+        <v>35.85140365794156</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.02345275816707</v>
+        <v>36.25628246266076</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-1.611228028910247</v>
+        <v>5.493047400504036</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.02085273415442</v>
+        <v>33.32086874350206</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>37.07006548749679</v>
+        <v>38.69101153327351</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-13.98414041409124</v>
+        <v>7.21059646884239</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>6.989686154615768</v>
+        <v>54.57920918408411</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>41.495776823334</v>
+        <v>56.62208877349462</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-50.83830923820618</v>
+        <v>48.00853904605678</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-46.23430754096482</v>
+        <v>53.15748763155629</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-20.16400764114285</v>
+        <v>55.20244006747983</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-15.95975758072019</v>
+        <v>18.93418211458619</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>23.94616959394581</v>
+        <v>59.38688571721216</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.29979205701873</v>
+        <v>60.4562356547537</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-12.36430931443392</v>
+        <v>21.79349408908679</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>37.77161039441741</v>
+        <v>43.97945424850356</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>67.79275495066842</v>
+        <v>46.22773670812721</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>7.240011916456737</v>
+        <v>7.244074504261551</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>53.86390206716435</v>
+        <v>47.17665395888707</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>77.97634612100119</v>
+        <v>52.5743439143989</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-13.30600561578218</v>
+        <v>7.930314148603227</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>55.73619543522499</v>
+        <v>71.49584541714047</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>89.79674203153978</v>
+        <v>70.55377536165648</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>44.09654568061625</v>
+        <v>77.45964170038646</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>60.28748612676718</v>
+        <v>87.05352052080598</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>95.74202282864603</v>
+        <v>85.89259944899639</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-26.9748423454753</v>
+        <v>23.66930822919036</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>69.86537669026056</v>
+        <v>84.01271019020858</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>94.9440154251506</v>
+        <v>84.28842085703225</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-25.5271083596726</v>
+        <v>11.51351607440522</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-22.914027508662</v>
+        <v>13.172113151399</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-12.6294565383281</v>
+        <v>17.66094895257281</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-11.32473876228867</v>
+        <v>-2.044768346728947</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-5.595538318146765</v>
+        <v>11.90573822810167</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>5.693053874972946</v>
+        <v>17.06886471506773</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-34.24390772574687</v>
+        <v>-0.9259157597173164</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-24.32269985379546</v>
+        <v>20.60226149138799</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-0.2121307210407224</v>
+        <v>25.81210019333658</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-30.59130643209717</v>
+        <v>17.07018347016096</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-24.74296633385298</v>
+        <v>25.6852052825183</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-24.34569480820208</v>
+        <v>28.21992860218906</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-26.62406899196272</v>
+        <v>11.67710494035904</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-23.39563472915414</v>
+        <v>21.02308215971158</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-10.64048253497332</v>
+        <v>25.82369641201257</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-33.43247459362915</v>
+        <v>5.024254580015675</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-25.90282727319149</v>
+        <v>10.44427800795447</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-6.392944067557522</v>
+        <v>18.93074298607424</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-7.771656704945556</v>
+        <v>-2.773471684268305</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-24.86660294307025</v>
+        <v>7.705330818725464</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-4.459261768830586</v>
+        <v>20.65626792782917</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-21.35314588628817</v>
+        <v>-2.52774758638731</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-44.66198869087775</v>
+        <v>15.41079241241918</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-0.9370800093952738</v>
+        <v>34.56675760875514</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-105.9785351082405</v>
+        <v>10.87130122080992</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-99.01531498223618</v>
+        <v>21.02061718198924</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-74.13340212264539</v>
+        <v>30.27941980489605</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-41.12439939978778</v>
+        <v>2.750529252557655</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-36.98609219483957</v>
+        <v>21.43519820662107</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-15.88951185633006</v>
+        <v>29.43369694224499</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-37.50538801573801</v>
+        <v>19.50558308154305</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>3.88662919459189</v>
+        <v>29.31314237975291</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>19.81595404590094</v>
+        <v>36.0971896914141</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-14.05106279105037</v>
+        <v>1.544176937403311</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>7.408575958162473</v>
+        <v>24.45298135932593</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>17.67096139666192</v>
+        <v>31.78454528576524</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-37.83643311482503</v>
+        <v>6.698915658550291</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>0.9878169741466962</v>
+        <v>44.20281457739488</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>31.24694618075277</v>
+        <v>54.8208275984899</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>-19.64988872959783</v>
+        <v>48.22756683049762</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-2.93646637171851</v>
+        <v>56.33337394747323</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.03093713650905</v>
+        <v>66.86423157861606</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-55.77245467994648</v>
+        <v>24.60399623698595</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-1.31484998673632</v>
+        <v>51.06711986492655</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>21.80831865124752</v>
+        <v>55.74718710404696</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-13.08735100713521</v>
+        <v>4.643392113290208</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-14.09324689757933</v>
+        <v>4.919201336318583</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>1.447477544139744</v>
+        <v>5.180748910150999</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1.497882175774251</v>
+        <v>-2.69732507385778</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-4.63974797818473</v>
+        <v>4.265456162304627</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.5631080776091</v>
+        <v>6.07197281628893</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-22.92241036367359</v>
+        <v>-1.406960989221492</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-23.65241394394175</v>
+        <v>6.940252328482433</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>1.574883200364098</v>
+        <v>6.749327230105362</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-24.33945955586846</v>
+        <v>3.074289644441176</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-25.77754944555321</v>
+        <v>3.561474165336808</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-15.09239640334826</v>
+        <v>6.077783928037388</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-9.019240374259098</v>
+        <v>6.700555713634362</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-15.98769289994674</v>
+        <v>7.596813234865287</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>8.900340008866081</v>
+        <v>9.158537107621402</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-7.675137690466457</v>
+        <v>1.019479896183828</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-5.521848593121788</v>
+        <v>3.539224898887358</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>5.672383810417713</v>
+        <v>4.260345890314202</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.90413722600339</v>
+        <v>-2.480658789217539</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-5.924417175207978</v>
+        <v>2.430399677779381</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>6.235245055347448</v>
+        <v>6.899360279808029</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.6231839386446296</v>
+        <v>-2.948195209835216</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-26.88666569954215</v>
+        <v>4.875901513686884</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-5.09818853791721</v>
+        <v>9.797340046962969</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-80.50324193132887</v>
+        <v>3.532449471478682</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-81.70371606949384</v>
+        <v>6.039218776500952</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-60.73602881381156</v>
+        <v>4.50767025893467</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-10.55972875651868</v>
+        <v>-2.607852465840072</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-21.98882874672186</v>
+        <v>6.475274879299231</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-3.505749282286715</v>
+        <v>9.283076491328636</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-2.657194766466219</v>
+        <v>18.38252001574251</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.23410530227152</v>
+        <v>22.02335391774023</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>38.60250736191192</v>
+        <v>25.59414107179817</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>7.38372937472586</v>
+        <v>2.722284775246322</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>19.9360073997551</v>
+        <v>17.38218269794612</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>35.06656305780847</v>
+        <v>22.27456649883532</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-10.99721789187466</v>
+        <v>8.117188700802444</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>9.655698916594972</v>
+        <v>30.12672714298181</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.62557430678207</v>
+        <v>35.04370472390163</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-5.022271775814161</v>
+        <v>37.45809457929241</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>3.931256762684754</v>
+        <v>42.58892763079717</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>34.19145228543532</v>
+        <v>42.66634509948496</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-22.67140548315639</v>
+        <v>23.46488043916463</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>2.600118791503562</v>
+        <v>32.60462944781389</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>39.54008583584572</v>
+        <v>39.06499781701548</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-49.70009322664721</v>
+        <v>17.25881700506267</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-44.1908978828599</v>
+        <v>23.92864351277682</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-13.57406383139786</v>
+        <v>32.78669619376143</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-19.58132836205739</v>
+        <v>2.006069820196167</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-14.26126757600434</v>
+        <v>21.5421319549031</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>17.92873251496644</v>
+        <v>29.10099338809045</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-44.43800809494699</v>
+        <v>4.887711212984613</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-14.03554013281511</v>
+        <v>38.87512387574422</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.04591917004608</v>
+        <v>44.48813534356016</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-39.01348663767813</v>
+        <v>36.96474064594351</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-34.59908041378192</v>
+        <v>46.65468651484168</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-15.97613473806619</v>
+        <v>51.39136438874139</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-35.76134587962635</v>
+        <v>31.20661120127413</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-24.3551591118085</v>
+        <v>54.44704506417354</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.64284146513144</v>
+        <v>63.83027395199906</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-38.2138118329682</v>
+        <v>11.45197342594436</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-24.16336116906663</v>
+        <v>22.10994263749412</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>10.62765662446449</v>
+        <v>26.81056295610409</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-5.674178381084502</v>
+        <v>-3.082577574129633</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-15.28579020168543</v>
+        <v>14.10059140927431</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.92992920105537</v>
+        <v>22.54694208568336</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-24.44345748216877</v>
+        <v>-0.7481132210293744</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-25.61540397297172</v>
+        <v>31.46304298553596</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.99443380259787</v>
+        <v>36.11080578764297</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-114.8120614007512</v>
+        <v>29.66683072068264</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-115.3809758808969</v>
+        <v>39.23615409884857</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-74.78363194656929</v>
+        <v>40.3581953631839</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-44.96615299847026</v>
+        <v>16.30733905626028</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-26.77598172766658</v>
+        <v>43.52947341404027</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>14.14495115029693</v>
+        <v>49.05777404339036</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-38.43669327870028</v>
+        <v>21.86249458607399</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-1.617067115502849</v>
+        <v>37.2225763872346</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.9763248872549</v>
+        <v>43.3609897990202</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-10.05334623512546</v>
+        <v>3.989013239053602</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>3.19944884962608</v>
+        <v>31.46573593216559</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>46.8093225110154</v>
+        <v>36.84192517232449</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-42.40962982568148</v>
+        <v>8.220255725124417</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>3.245616875509413</v>
+        <v>57.19276278154778</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>53.90469495255762</v>
+        <v>61.7316877781066</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-29.3950093218706</v>
+        <v>68.26884669169519</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-16.19160911526656</v>
+        <v>74.67588784365097</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>40.9322474031117</v>
+        <v>80.30783932544765</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-54.04790984676676</v>
+        <v>30.0201327592179</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-7.855580503409115</v>
+        <v>66.25797820266158</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>42.17706939145272</v>
+        <v>75.23671085107824</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-13.21004708696152</v>
+        <v>17.05686159144516</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-2.154085616521954</v>
+        <v>36.36843241495128</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.76040200087765</v>
+        <v>40.51635800468875</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.7374350745428</v>
+        <v>8.117107117466066</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>42.23694698500027</v>
+        <v>41.23788891034265</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>73.27311181281642</v>
+        <v>45.87206452312142</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-3.387082042936143</v>
+        <v>9.49534556576663</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>37.77387199193696</v>
+        <v>58.67826603794478</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>82.63171080638709</v>
+        <v>60.23483684142069</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>35.61766928719713</v>
+        <v>67.08211433000388</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.6880863771256</v>
+        <v>71.50418730047232</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>62.8773785473695</v>
+        <v>69.90056231231125</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>5.502842123214904</v>
+        <v>21.21736955425911</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.51226600887087</v>
+        <v>61.57160893513075</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>70.07935079369729</v>
+        <v>67.06802304176783</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-21.93199396855532</v>
+        <v>14.30703696914022</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-11.36743632814979</v>
+        <v>32.95140854397879</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.9654584170144</v>
+        <v>38.37089083809242</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-4.102787130850047</v>
+        <v>3.975306003117648</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-9.732839233720952</v>
+        <v>29.13074302416888</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.43200721898619</v>
+        <v>38.44026676902526</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-14.66165047321472</v>
+        <v>5.388350294838304</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-16.63643597294437</v>
+        <v>48.27851526037963</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.49047751529314</v>
+        <v>60.56459457270225</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>-76.75952487866955</v>
+        <v>46.64271875996263</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>-70.15774907831793</v>
+        <v>54.52609435355309</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-39.09390557396152</v>
+        <v>54.88345035417338</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-26.15676976344652</v>
+        <v>13.70573616923879</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-2.456672175868349</v>
+        <v>57.15181126336768</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.63878630587452</v>
+        <v>63.35130055150651</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-25.98732198004389</v>
+        <v>15.19859761608291</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>11.37650362893213</v>
+        <v>38.33339094672905</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>55.81124617283568</v>
+        <v>45.05360180173527</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>0.645434127970347</v>
+        <v>1.335763516599918</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>16.62106031481601</v>
+        <v>37.8901905011615</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>65.26708350917413</v>
+        <v>46.07814592441455</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-18.53705042094215</v>
+        <v>3.934308913679171</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>18.53834487440791</v>
+        <v>60.38163283167816</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>80.8833641628954</v>
+        <v>69.60304476628049</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>4.191392753491286</v>
+        <v>67.6475900370835</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>27.33317340970994</v>
+        <v>78.12469383031019</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>76.80196744413261</v>
+        <v>85.11273829191219</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-40.23310963009466</v>
+        <v>14.32878290482381</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>22.46188992766047</v>
+        <v>73.51059123446723</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>80.96359910737759</v>
+        <v>80.50934778426186</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-37.3529436685243</v>
+        <v>19.97555746464753</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-20.43386939128931</v>
+        <v>30.69452603418949</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>9.13391948869662</v>
+        <v>37.87973846789574</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-2.702810670344761</v>
+        <v>7.342411257735652</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.31308066790814</v>
+        <v>41.99886846984667</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>59.13533955061335</v>
+        <v>46.98777899636691</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-17.39391586957673</v>
+        <v>8.943508705794873</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.68919111164381</v>
+        <v>59.00455500416889</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>67.28606304295214</v>
+        <v>60.40046254078615</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>21.80389793297972</v>
+        <v>64.93698234817769</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>23.8227119286958</v>
+        <v>65.28926358433057</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.35322093634987</v>
+        <v>67.74941063984113</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-24.96695945272451</v>
+        <v>21.49433342840662</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-0.9487926664549917</v>
+        <v>43.95868424973202</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>49.99013900097928</v>
+        <v>66.6088325574482</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-25.8741435145284</v>
+        <v>21.87193261358702</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>2.40640674987776</v>
+        <v>37.29968094370381</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.87903058799729</v>
+        <v>40.22957272281211</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-2.365800378765712</v>
+        <v>4.230090676832685</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>8.782195941165995</v>
+        <v>34.80313714657599</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>44.64473784535279</v>
+        <v>40.41546804403043</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-14.37167894374518</v>
+        <v>2.73326388932772</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>8.396200483544746</v>
+        <v>53.12999725315447</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>56.90353682550447</v>
+        <v>61.17615970698465</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-79.14692083568586</v>
+        <v>53.71226431326563</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>-76.33753600449761</v>
+        <v>58.77654734445758</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-36.47370629546266</v>
+        <v>60.68044022974711</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-34.54487260590652</v>
+        <v>22.28131026019053</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>15.7267185649451</v>
+        <v>61.94449670011413</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>43.14601784147577</v>
+        <v>67.73388192784869</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-29.73719121419806</v>
+        <v>23.4366761787131</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>21.02768730617522</v>
+        <v>42.6456840581673</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>55.87425258272275</v>
+        <v>47.2858655300948</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.488165598768418</v>
+        <v>5.005839606389099</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.92784533024768</v>
+        <v>42.87964414482035</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>71.15808854058285</v>
+        <v>48.21468290317888</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-22.44655498629199</v>
+        <v>3.666459434605411</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>35.49126342748939</v>
+        <v>66.43963158094607</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>84.29584254422984</v>
+        <v>71.91854866032072</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>14.39586776589941</v>
+        <v>79.04726155639646</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>34.19786003390344</v>
+        <v>82.89729345318777</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>85.03148747758324</v>
+        <v>87.35208834027677</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-42.30061613725708</v>
+        <v>22.14015345735966</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>41.93255646595269</v>
+        <v>74.89127118319185</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>79.11144085661952</v>
+        <v>81.83613498144514</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-18.12806282302684</v>
+        <v>22.21331538018965</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-0.3946714738943058</v>
+        <v>27.59906188708899</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.5343730123613</v>
+        <v>34.13895755772122</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.99733818187381</v>
+        <v>14.08641151770614</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>65.02459877968931</v>
+        <v>58.92367210694586</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>79.97644091532685</v>
+        <v>58.27072109614047</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-13.28848022730971</v>
+        <v>10.73630237412658</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>49.29902179176254</v>
+        <v>61.76466956054347</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>71.95175364776419</v>
+        <v>59.0117456724673</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>33.23788669644476</v>
+        <v>66.05668377246774</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.54847513647734</v>
+        <v>67.77009868867287</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>46.3309074274416</v>
+        <v>68.20289041736078</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-12.53571724951054</v>
+        <v>25.09728624668314</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>8.094169177289544</v>
+        <v>45.14640375289346</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>56.1738167949993</v>
+        <v>64.17933829173705</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-8.412384236962836</v>
+        <v>25.35980274622314</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>15.60989863027646</v>
+        <v>33.71629473748654</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.04777597729661</v>
+        <v>38.49091572273967</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>44.33781921263902</v>
+        <v>35.91699748295326</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>49.96706522207087</v>
+        <v>52.90972136489275</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>68.52976343928101</v>
+        <v>58.20958581278551</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-10.0046137803874</v>
+        <v>9.603581648866452</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.99739131033569</v>
+        <v>55.51791758411976</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>56.91305524811942</v>
+        <v>61.49355157630924</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-63.95088894655312</v>
+        <v>50.91119798739162</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>-64.49803388512193</v>
+        <v>58.61794334981637</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-26.23257163508877</v>
+        <v>58.30148211613361</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-6.933718777931986</v>
+        <v>29.99667941079329</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>27.35555354648356</v>
+        <v>60.23699377994026</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>51.1156475964322</v>
+        <v>67.24186262542601</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-13.38815870714457</v>
+        <v>28.9743368602464</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.59898482330003</v>
+        <v>40.79465279127625</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.08226747845809</v>
+        <v>44.82654209892529</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>47.96731626746144</v>
+        <v>37.73847499458861</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>60.84412668845918</v>
+        <v>61.8498361066915</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>89.86163365943075</v>
+        <v>63.38257595462416</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-22.33781463265633</v>
+        <v>9.673454604868169</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.53950731504703</v>
+        <v>67.71863444561941</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>81.46689374694829</v>
+        <v>69.34292514854982</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.96113026328145</v>
+        <v>83.4630894647171</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.11684203366808</v>
+        <v>82.67121055825078</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>87.25435178043749</v>
+        <v>88.25041900135673</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-19.86993063019328</v>
+        <v>35.990351083588</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>43.32182558158449</v>
+        <v>78.10007106302238</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>82.8143923021663</v>
+        <v>85.94890426908148</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-39.26586011746177</v>
+        <v>14.66035215373381</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-39.1384216930377</v>
+        <v>31.30507927345776</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1.735256154758829</v>
+        <v>37.65175035323944</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-8.847698708207602</v>
+        <v>2.09244908295581</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-5.59554396895372</v>
+        <v>27.42288787157771</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>43.08763308562523</v>
+        <v>42.43721735092836</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-28.38895681857828</v>
+        <v>2.919557990975701</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-3.750073101949127</v>
+        <v>53.32895850754181</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>49.25749998743576</v>
+        <v>58.58585814778941</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>-8.718049107946015</v>
+        <v>58.71508300031836</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>3.12943305333873</v>
+        <v>64.79315291115029</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>32.15252898152396</v>
+        <v>67.11018595593819</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-27.78796344807127</v>
+        <v>9.412187884470939</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-16.11457464886787</v>
+        <v>55.4997868516197</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.55044452976533</v>
+        <v>62.74739237318377</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-32.5470363867861</v>
+        <v>11.27826434377631</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-24.15580677739597</v>
+        <v>31.77830426836076</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.50039386766271</v>
+        <v>34.56793078198138</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-8.662848130226351</v>
+        <v>-0.5309324073345998</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-30.41919332646252</v>
+        <v>26.87933786031499</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>16.19476952698959</v>
+        <v>33.93523255937032</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-22.15724963312148</v>
+        <v>-0.2574230682173386</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-38.42887439983319</v>
+        <v>46.47269285681323</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.70551350290152</v>
+        <v>55.6040694152429</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-106.5164060272584</v>
+        <v>42.75898401465809</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-99.61729078969016</v>
+        <v>51.10298405626632</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-52.32855404534</v>
+        <v>52.45484062272058</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-43.60840947439915</v>
+        <v>2.985773901677657</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-31.49171275279228</v>
+        <v>45.4037147110096</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>10.52960123418937</v>
+        <v>58.09286304902862</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-39.90700721020961</v>
+        <v>11.68564318974838</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>-9.590225821079414</v>
+        <v>34.1394869711139</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.73090604181156</v>
+        <v>41.44182494863342</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-9.617637282344973</v>
+        <v>-0.4625707715152281</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-12.45860694425348</v>
+        <v>35.38398192461314</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.4467901112307</v>
+        <v>44.33112913972548</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-32.3617849973523</v>
+        <v>0.04423418756250541</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-11.12124224705293</v>
+        <v>54.93089672660768</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>55.14689566376806</v>
+        <v>67.3506571924227</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-26.61610227479481</v>
+        <v>65.41029328499576</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-10.18219062359255</v>
+        <v>76.68895109929183</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>61.16998102698754</v>
+        <v>83.57621231727926</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-63.4807776307356</v>
+        <v>3.610257895276259</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-11.39110366462508</v>
+        <v>68.4782967815149</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>49.87977280260451</v>
+        <v>79.09426032188816</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-7.750028460103053</v>
+        <v>15.01409767470301</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-12.57804122833998</v>
+        <v>15.21167388892799</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>5.521834337706721</v>
+        <v>17.78904673974688</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>8.845613604086637</v>
+        <v>0.09683730530462853</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.936473799263823</v>
+        <v>16.32882071205767</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.05160432893273</v>
+        <v>20.96404997059194</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-8.753124696117212</v>
+        <v>6.448321399859456</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-1.431349903592917</v>
+        <v>28.33826491047355</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.95891159058813</v>
+        <v>29.42094907470368</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-15.04657305937862</v>
+        <v>23.71727810454779</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-8.744858406987376</v>
+        <v>28.98513915979304</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>4.443726639931853</v>
+        <v>31.92782298872866</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>5.508380839385765</v>
+        <v>18.7347142688773</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-9.484020277910574</v>
+        <v>22.49667754220548</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.12652716045575</v>
+        <v>27.92018904239887</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-24.24179609837289</v>
+        <v>12.44835720637892</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-15.63974028763515</v>
+        <v>27.6345751944331</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.17328672263814</v>
+        <v>35.02116652195718</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1.114380637861203</v>
+        <v>4.499288159714656</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-8.324050639544893</v>
+        <v>26.62006869255757</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>44.72827375252631</v>
+        <v>39.93206235066708</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-13.0155315871403</v>
+        <v>5.685832012286408</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-21.46947839617739</v>
+        <v>42.98354078320484</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.50993249493011</v>
+        <v>57.72845055971763</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>-81.92922485650901</v>
+        <v>37.85712518442377</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>-79.44433145310514</v>
+        <v>44.72293806251842</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-23.96868662631029</v>
+        <v>56.29983311742879</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-24.01573796185865</v>
+        <v>10.08959771349362</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-9.638827472066723</v>
+        <v>46.31420528757118</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>39.82710140252333</v>
+        <v>57.38064744359569</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-36.55432157012082</v>
+        <v>16.52208763772678</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-4.870125312274681</v>
+        <v>35.09972995023988</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.58965165175549</v>
+        <v>44.77647036876428</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-12.80014936965155</v>
+        <v>4.567216651491435</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-3.217993040805041</v>
+        <v>33.68192287785686</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>54.85266276836943</v>
+        <v>47.87061054453527</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-37.79229883525103</v>
+        <v>8.442559654602167</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>-4.259446408605882</v>
+        <v>55.04947739110109</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>64.56529709653033</v>
+        <v>70.15034238145773</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>-20.33867652037408</v>
+        <v>56.53316383382706</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>-11.10710543256756</v>
+        <v>63.52545954029569</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>56.86687409274303</v>
+        <v>81.79649500463425</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-55.94141544990704</v>
+        <v>16.98268239406827</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>-7.948788580609474</v>
+        <v>55.9538405431243</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>53.58048263760234</v>
+        <v>76.78126278096771</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-15.65126771927548</v>
+        <v>14.05583990277552</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-3.806335540777496</v>
+        <v>16.37266683799965</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.33320697830521</v>
+        <v>20.2465473720507</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.5769707404488</v>
+        <v>-1.084466002787675</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.28776958443838</v>
+        <v>18.86481069011383</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>43.36591560838751</v>
+        <v>24.02055155865328</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-13.76451384543851</v>
+        <v>3.464473998158692</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>23.52629907889796</v>
+        <v>35.33711353803892</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>49.27903867106453</v>
+        <v>37.61616940606002</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-6.572841541007861</v>
+        <v>33.61046455587332</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-4.042970217887913</v>
+        <v>39.90759350524102</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.53171447382898</v>
+        <v>47.12478074601367</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-7.579877229506579</v>
+        <v>16.73472681731153</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>13.91507992951971</v>
+        <v>38.60640424286017</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>46.94484267937962</v>
+        <v>47.10543339803186</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-22.67679704319825</v>
+        <v>8.01740346965417</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>7.019844883308465</v>
+        <v>15.7347115470541</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>36.85341403967097</v>
+        <v>32.57990463178439</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>7.608244430510567</v>
+        <v>2.742287383552981</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>6.482361325848061</v>
+        <v>14.57785023156879</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>62.83393291535238</v>
+        <v>47.6363701582423</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-8.439095183645193</v>
+        <v>-0.7345603892869583</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-0.4199751462343073</v>
+        <v>27.70280604958968</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>55.18274060048005</v>
+        <v>52.72244822507578</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-86.04069002724869</v>
+        <v>28.5478969222104</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-76.7754956455308</v>
+        <v>39.26353615175678</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-24.21467861333078</v>
+        <v>55.32580511810784</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-26.42884583003429</v>
+        <v>7.630841303474931</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>13.72093743837026</v>
+        <v>43.51117696290466</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>47.51388762420207</v>
+        <v>56.38324806073762</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-31.47369469431392</v>
+        <v>14.17406662353989</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>15.85643996907054</v>
+        <v>24.28681436741266</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>51.93069207289925</v>
+        <v>37.50938030505122</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>0.4209298232031955</v>
+        <v>1.144049477252945</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>7.598886753161068</v>
+        <v>20.56282319400979</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>61.966206371962</v>
+        <v>41.63773390539997</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-31.406682849115</v>
+        <v>-0.8006522501258111</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>3.420349033073236</v>
+        <v>39.79355292668909</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>72.36423240352501</v>
+        <v>59.50309787777249</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-1.027317890813961</v>
+        <v>57.38298576266945</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>11.06289774152548</v>
+        <v>59.49927718594147</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.28843936815154</v>
+        <v>76.87238023861883</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-51.48243968525584</v>
+        <v>8.161613765619375</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>5.644310736513589</v>
+        <v>46.26179865268701</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>69.31681784136718</v>
+        <v>71.56579687450945</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-36.60902254081466</v>
+        <v>23.56289985090314</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>-18.23376983294608</v>
+        <v>32.53852151085488</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>5.309016874653622</v>
+        <v>37.25131532718142</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>1.157323631366623</v>
+        <v>8.051257334628232</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>48.74456661580233</v>
+        <v>45.69229804772186</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>63.22305840685281</v>
+        <v>47.11929250146789</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-19.35232976598978</v>
+        <v>10.444039608802</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>47.99518077510351</v>
+        <v>61.81343753584677</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>67.34187509458461</v>
+        <v>60.08566783003512</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.14178142803307</v>
+        <v>62.78356686125018</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.53661079254287</v>
+        <v>66.34415562466809</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>57.13582197830009</v>
+        <v>69.83617449605059</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-23.21873294622044</v>
+        <v>26.88788929840848</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-10.59853311287007</v>
+        <v>39.22651319742167</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>56.07281124410876</v>
+        <v>67.27605528979259</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-17.34672230696746</v>
+        <v>26.11920239737264</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>10.66017843488575</v>
+        <v>38.92788615804958</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.93515285378544</v>
+        <v>40.09117207390338</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>2.387025362609606</v>
+        <v>7.097158873730123</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>27.82337703234155</v>
+        <v>37.68735185113503</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>46.74500733883092</v>
+        <v>41.71869147714823</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-13.93880416049855</v>
+        <v>8.445980370943715</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.2229242387147</v>
+        <v>57.01047900538875</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>57.59574931517948</v>
+        <v>61.51326025882339</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>-49.01454504260668</v>
+        <v>52.57609976321866</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>-35.22975199525193</v>
+        <v>57.30771628259778</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-4.643695659352929</v>
+        <v>60.91977041692937</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-17.83415687928199</v>
+        <v>26.83899329976804</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>24.00081445885137</v>
+        <v>61.18332555402763</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>48.624686034416</v>
+        <v>64.06840796127355</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-33.06878125189793</v>
+        <v>26.23644633577448</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>16.82942864241254</v>
+        <v>41.82675188270996</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>40.17350171830098</v>
+        <v>45.103356381174</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-7.410661254509378</v>
+        <v>7.342604876219497</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>30.88356800227659</v>
+        <v>44.69318443754993</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>55.47009156175788</v>
+        <v>47.23980243716464</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-34.48386195131145</v>
+        <v>7.394063962936396</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>40.46453627368707</v>
+        <v>67.66068147854131</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>73.43474749643944</v>
+        <v>70.26268065004417</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>22.90965777861901</v>
+        <v>76.65532536814385</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>40.17096012742194</v>
+        <v>78.58922869587869</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>75.69269875976259</v>
+        <v>83.26226408905137</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-45.54025677282347</v>
+        <v>30.36723862636824</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>23.44061179694448</v>
+        <v>74.15716480022157</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>60.80743743915808</v>
+        <v>79.54401570869143</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-42.87057313851069</v>
+        <v>14.12386625891484</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-40.82475033578832</v>
+        <v>30.58383149660625</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-5.519504405530071</v>
+        <v>36.00615927916275</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-10.69199449091788</v>
+        <v>3.628966336836662</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>-3.564642093327123</v>
+        <v>34.78838864405623</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>42.60962522825331</v>
+        <v>43.12166143125189</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-30.42308013991097</v>
+        <v>3.640474185551334</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>-6.598701035450816</v>
+        <v>53.03734732435986</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.11607981368682</v>
+        <v>56.23957417426564</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>-13.17630199781435</v>
+        <v>54.79351288139907</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>5.082185062617455</v>
+        <v>65.76711866470033</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.61585466798898</v>
+        <v>63.22926224840893</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-26.93905345824324</v>
+        <v>8.898267576675309</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-12.50348463687489</v>
+        <v>53.14795570147193</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>19.40421326859574</v>
+        <v>62.12853703578963</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-33.7882011080779</v>
+        <v>12.77824136381025</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>-24.85485579077682</v>
+        <v>32.72064691780039</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>9.733127582256586</v>
+        <v>35.39655558890207</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-6.65810866559589</v>
+        <v>3.237090868082891</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-26.55794415991697</v>
+        <v>31.95225978872557</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>20.92050973520311</v>
+        <v>37.08976148369613</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-19.96645613214413</v>
+        <v>4.008808130248418</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>-34.70738020164107</v>
+        <v>49.82440075128505</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>26.17710193335903</v>
+        <v>58.24825260813296</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-94.4725495252281</v>
+        <v>46.00625802553783</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-90.91815621799249</v>
+        <v>56.07436042677423</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-38.09255866843922</v>
+        <v>56.41020613690957</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-35.22998046182603</v>
+        <v>9.504785090529627</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>-14.7894162447774</v>
+        <v>57.86948449893663</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>14.48753287259613</v>
+        <v>62.41531221721922</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-46.13415539575762</v>
+        <v>10.9136977711024</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-19.17543283575141</v>
+        <v>30.30364909479662</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.67715275048828</v>
+        <v>38.92407362196961</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-11.41366671052869</v>
+        <v>1.227202021254048</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>-15.36420010643884</v>
+        <v>35.58437062551641</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.00147928138539</v>
+        <v>43.79054441979609</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-37.07250299764043</v>
+        <v>2.061680698968086</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>-16.80367203454911</v>
+        <v>51.4619482382974</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>50.94047858248631</v>
+        <v>65.76046019432708</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-26.95398969932707</v>
+        <v>60.18682877682889</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>-14.74715179416206</v>
+        <v>73.24459012729309</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>57.83327412115965</v>
+        <v>80.80538086571043</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-64.04600804611268</v>
+        <v>6.995125556784391</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>-15.15908577857057</v>
+        <v>62.21957145414883</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>41.21393581760331</v>
+        <v>75.76827143822716</v>
       </c>
     </row>
   </sheetData>
